--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T07:41:31+00:00</t>
+    <t>2025-05-28T08:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T08:11:11+00:00</t>
+    <t>2025-05-28T13:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T13:58:46+00:00</t>
+    <t>2025-05-28T14:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T14:12:27+00:00</t>
+    <t>2025-05-28T14:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T14:19:57+00:00</t>
+    <t>2025-05-28T14:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T14:46:41+00:00</t>
+    <t>2025-05-28T15:07:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T15:07:53+00:00</t>
+    <t>2025-05-28T15:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T15:13:21+00:00</t>
+    <t>2025-05-28T15:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T15:28:59+00:00</t>
+    <t>2025-06-02T14:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-02T14:22:00+00:00</t>
+    <t>2025-06-04T07:37:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T07:37:59+00:00</t>
+    <t>2025-06-10T07:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T07:06:57+00:00</t>
+    <t>2025-06-10T07:24:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T07:24:38+00:00</t>
+    <t>2025-06-11T11:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-11T11:53:19+00:00</t>
+    <t>2025-06-11T12:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/331-liens-morts-dans-lig-page-contenu-dossier-cda/ig/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-11T12:32:06+00:00</t>
+    <t>2025-06-11T14:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
